--- a/design/策划配置表/副本表.xlsx
+++ b/design/策划配置表/副本表.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="副本" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="章节" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="副本" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,9 +21,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节背景</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节1描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节2描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节3描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节4描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节5描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节6描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter6.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节7描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节8描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节9描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">章节10描述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter10.png</t>
   </si>
   <si>
     <r>
@@ -690,10 +793,226 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -706,19 +1025,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,18 +1048,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -746,19 +1071,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,19 +1094,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,19 +1117,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,19 +1140,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,19 +1163,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -846,19 +1186,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,19 +1209,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -886,19 +1232,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -906,19 +1255,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
